--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\project\excel_cleaner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE1BD3-72D4-417F-9617-A010B19751B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DFA1FE-A838-4418-826C-E1F00E1E29BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{E078527D-9920-45B2-8257-68FFB2D0EDE6}"/>
   </bookViews>
@@ -34,40 +34,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>3^</t>
-  </si>
-  <si>
-    <t>*4</t>
-  </si>
-  <si>
-    <t>(5</t>
-  </si>
-  <si>
-    <t>g9</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>tod</t>
+  </si>
+  <si>
+    <t>omar</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>6%0</t>
+  </si>
+  <si>
+    <t>55^</t>
+  </si>
+  <si>
+    <t>90@</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +86,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,14 +116,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,57 +442,60 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E314B20B-89B3-4AA1-80D0-A6615CF7AF87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>